--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_12.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_12.xlsx
@@ -483,76 +483,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>jaah_23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.07480106100795755</v>
+        <v>0.05482954545454546</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['Bb', 'Bb', 'F:7']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['Ab', 'Ab', 'Eb:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.44, 12.42), (70.06, 80.28)]</t>
+          <t>[(15.25, 22.53)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(64.32, 68.27), (25.22, 27.17)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(11.93, 17.4)]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2589285714285714</v>
+        <v>0.2196969696969697</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(80.22, 87.22)]</t>
+          <t>[(13.34, 16.08)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(47.02, 51.38)]</t>
+          <t>[(10.82, 17.08)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -561,76 +557,72 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.150268336314848</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>[['E', 'A', 'E', 'B:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[(58.4, 60.92)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.14, 37.24)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[(100.569342, 113.665396)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1291208791208791</v>
+        <v>0.3125</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab'], ['Db', 'Db:min', 'Ab']]</t>
+          <t>[['B', 'E/5', 'B']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A'], ['D', 'D:min', 'A']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(111.87, 114.76), (122.57, 124.49)]</t>
+          <t>[(58.625147, 64.604285)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.459543, 6.438299), (22.703877, 28.810725)]</t>
+          <t>[(52.74, 60.86)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -639,76 +631,72 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.07480106100795755</v>
+        <v>0.3342175066312997</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[(39.56, 57.9)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(21.14, 27.92)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(0.66, 8.22)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_213</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1875</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E', 'E:7', 'A']]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(24.642743, 31.49263)]</t>
+          <t>[(71.64, 79.22)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.192174, 27.488682)]</t>
+          <t>[(62.28, 64.32)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -717,35 +705,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1003320683111955</v>
+        <v>0.1702898550724637</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A']]</t>
+          <t>[['E', 'A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
+          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(88.58347, 93.575761)]</t>
+          <t>[(28.208042, 33.386092)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.94, 4.24)]</t>
+          <t>[(0.344657, 7.314387)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -754,76 +742,80 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.2003577817531306</v>
+        <v>0.1846153846153846</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(40.6, 45.98)]</t>
+          <t>[(51.62, 63.9)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(92.04, 104.4)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[(23.42, 33.96)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2014652014652015</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'D', 'A']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'F', 'C']]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(47.01526, 67.077301)]</t>
+          <t>[(0.66, 7.7)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.446041, 4.075124)]</t>
+          <t>[(50.82, 64.98)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -832,40 +824,40 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.09080188679245282</v>
+        <v>0.1702898550724637</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'G'], ['G', 'G', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'D'], ['D', 'D', 'G/5']]</t>
+          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(31.24882, 38.911405), (60.180884, 68.841927)]</t>
+          <t>[(44.16, 47.28), (43.04, 46.66)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907), (12.707687, 24.062244)]</t>
+          <t>[(8.96, 11.42), (8.34, 10.8)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -873,247 +865,239 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>isophonics_203</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1602564102564102</v>
+        <v>0.1291666666666667</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['D/b7', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>[['E', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(32.874217, 40.885102)]</t>
+          <t>[(52.193219, 58.683197)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.899614, 20.672131)]</t>
+          <t>[(24.224784, 30.749591)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>isophonics_257</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1036789297658863</v>
+        <v>0.1838235294117647</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['F#:min', 'B', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:min', 'A', 'D', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
+          <t>[(19.685283, 26.964739)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[(25.00678, 31.612706)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_111</t>
+          <t>schubert-winterreise_149</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.3314393939393939</v>
+        <v>0.1712473572938689</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C', 'G:7', 'C', 'G:7', 'C']]</t>
+          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.46, 11.26)]</t>
+          <t>[(20.44, 25.56)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(70.519024, 79.249727)]</t>
+          <t>[(56.16, 60.7)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1177257525083612</v>
+        <v>0.07900136798905609</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[(36.711, 39.787)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.68, 5.3)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(0.36, 7.14)]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.2363636363636364</v>
+        <v>0.1602564102564102</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[(9.54, 12.04)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>[(0.440395, 9.607823)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2527472527472527</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
+          <t>[['Eb', 'Ab/5', 'Eb']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(7.42, 27.64)]</t>
+          <t>[(62.48, 64.92)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(56.76, 66.04)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[(17.016, 22.841)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
   </sheetData>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_12.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_23</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05482954545454546</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2583333333333333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.25, 22.53)]</t>
+          <t>[['D/5', 'A', 'D', 'A/3']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.93, 17.4)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:12.743000', '0:00:17.058000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_25</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1406355645706558</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['E/5', 'E/#4', 'E/4', 'E']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(13.34, 16.08)]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(10.82, 17.08)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.440395', '0:00:07.659045')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:52.010000', '0:00:59.490000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4857142857142857</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D', 'D:7']]</t>
-        </is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1177489177489177</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B:7']]</t>
+          <t>[['Db:7', 'Db:7', 'F:min7', 'F:min7'], ['Ab', 'Ab:7', 'Ab:7', 'Ab:7'], ['F:7', 'F:7', 'Bb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(58.4, 60.92)]</t>
+          <t>[['F:7', 'F:7', 'C:maj6', 'C:maj6'], ['C', 'C:7', 'C:7', 'C:7'], ['A:7', 'A:7', 'D:7', 'D:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(100.569342, 113.665396)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:01:30.390000', '0:01:34.680000'), ('0:00:15.420000', '0:00:19.560000'), ('0:01:00.440000', '0:01:04.710000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:10.490000', '0:00:15.540000'), ('0:00:38.900000', '0:00:40.820000'), ('0:00:44.980000', '0:00:46.610000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3125</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B', 'E/5', 'B']]</t>
-        </is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(58.625147, 64.604285)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:50.461714', '0:00:57.636679')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:08.150589', '0:01:20.236575')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08901790033865506</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['D:7', 'G/5', 'G:min/5', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.56, 57.9)]</t>
+          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.66, 8.22)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:23.505328', '0:01:31.934172')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:03.080000', '0:00:13.480000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_141</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(71.64, 79.22)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(62.28, 64.32)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:03:50.780000', '0:04:06.860000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_146</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Db', 'Gb', 'Ab', 'Db']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(28.208042, 33.386092)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.344657, 7.314387)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:05.915850', '0:00:17.734807')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(51.62, 63.9)]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.66, 7.7)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(50.82, 64.98)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1702898550724637</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:maj', 'G:maj'], ['G:maj/B', 'D:7', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_216</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5483870967741935</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(44.16, 47.28), (43.04, 46.66)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(8.96, 11.42), (8.34, 10.8)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:28.009637', '0:00:33.826235')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1291666666666667</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D/b7', 'C', 'G', 'D']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4248366013071896</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A', 'E']]</t>
+          <t>[['A', 'D', 'A', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(52.193219, 58.683197)]</t>
+          <t>[['C', 'F/5', 'C', 'C/7', 'C/b7']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(24.224784, 30.749591)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:01:22.290863', '0:01:33.575761')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:34.164000', '0:01:42.317000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_257</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1838235294117647</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B', 'E', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:min', 'A', 'D', 'B:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(19.685283, 26.964739)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.00678, 31.612706)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1712473572938689</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(20.44, 25.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(56.16, 60.7)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1602564102564102</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.54, 12.04)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.440395, 9.607823)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:28.180000', '0:01:49.560000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_1</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2527472527472527</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Ab/5', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(17.016, 22.841)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
